--- a/localidades.xlsx
+++ b/localidades.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if714983_iteso_mx/Documents/ITESO/8avo semestre/PAP/ExelPitss_Equipo4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria jose\Documents\ITESO\ExelPitss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{3575B968-361F-4493-9A7B-EC04DE7F3813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{079E3307-0A45-45DA-B7E3-EA816F204083}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8CC178E-864D-4A6D-A1A7-0BEBD841B630}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>MARIN AVILA HECTOR</t>
   </si>
@@ -376,12 +375,18 @@
   </si>
   <si>
     <t>APELLIDOS Y NOMBRES</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,14 +436,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DC86063-4E70-45A3-957E-6DBA2743B297}" name="Tabla1" displayName="Tabla1" ref="A1:B83" totalsRowShown="0">
-  <autoFilter ref="A1:B83" xr:uid="{EE4183D9-753B-4CB0-A126-6C97BAEC197D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
-    <sortCondition ref="A1:A83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D83" totalsRowShown="0">
+  <autoFilter ref="A1:D83"/>
+  <sortState ref="A2:D83">
+    <sortCondition ref="B1:B83"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7938AA94-4EC6-4D94-A1B2-3A13F767D07F}" name="APELLIDOS Y NOMBRES"/>
-    <tableColumn id="2" xr3:uid="{D2E1783F-C1A6-42D1-9D88-88484308EA27}" name="Zona"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="APELLIDOS Y NOMBRES"/>
+    <tableColumn id="2" name="Zona"/>
+    <tableColumn id="3" name="Lat"/>
+    <tableColumn id="4" name="Long"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -740,681 +747,1179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F259F-7C2B-4297-9091-583CEE8EE219}">
-  <dimension ref="A1:B83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>21.882339999999999</v>
+      </c>
+      <c r="D2">
+        <v>-102.28259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>19.346699999999998</v>
+      </c>
+      <c r="D3">
+        <v>-99.161739999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>17.556529999999999</v>
+      </c>
+      <c r="D4">
+        <v>-93.381039999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>28.635280000000002</v>
+      </c>
+      <c r="D5">
+        <v>-106.08889000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>28.635280000000002</v>
+      </c>
+      <c r="D6">
+        <v>-106.08889000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>28.635280000000002</v>
+      </c>
+      <c r="D7">
+        <v>-106.08889000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>28.635280000000002</v>
+      </c>
+      <c r="D8">
+        <v>-106.08889000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D9">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D10">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D11">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D12">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D13">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D14">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D15">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D16">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>19.428470000000001</v>
+      </c>
+      <c r="D17">
+        <v>-99.127660000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D18">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D19">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D20">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D21">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D22">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D23">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D24">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D25">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>31.733329999999999</v>
+      </c>
+      <c r="D26">
+        <v>-106.48333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>23.74174</v>
+      </c>
+      <c r="D27">
+        <v>-99.145989999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>19.147359999999999</v>
+      </c>
+      <c r="D28">
+        <v>-103.72244000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>18.926100000000002</v>
+      </c>
+      <c r="D29">
+        <v>-99.23075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>24.057179999999999</v>
+      </c>
+      <c r="D30">
+        <v>-104.53319999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D31">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D32">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D33">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D34">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D35">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C36">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D36">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D37">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D38">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D39">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C40">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D40">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C41">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D41">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D42">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D43">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C44">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D44">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C45">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D45">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C46">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D46">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>20.666820000000001</v>
+      </c>
+      <c r="D47">
+        <v>-103.39182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>20.676749999999998</v>
+      </c>
+      <c r="D48">
+        <v>-101.35628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <v>21.129079999999998</v>
+      </c>
+      <c r="D49">
+        <v>-101.67374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>21.129079999999998</v>
+      </c>
+      <c r="D50">
+        <v>-101.67374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>20.975370000000002</v>
+      </c>
+      <c r="D51">
+        <v>-89.616960000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C52">
+        <v>29.906870000000001</v>
+      </c>
+      <c r="D52">
+        <v>-101.42055999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D53">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D54">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D55">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D56">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D57">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>25.675070000000002</v>
+      </c>
+      <c r="D58">
+        <v>-100.31847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>19.700780000000002</v>
+      </c>
+      <c r="D59">
+        <v>-101.18443000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>19.700780000000002</v>
+      </c>
+      <c r="D60">
+        <v>-101.18443000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>27.476289999999999</v>
+      </c>
+      <c r="D61">
+        <v>-99.516390000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62">
+        <v>20.116969999999998</v>
+      </c>
+      <c r="D62">
+        <v>-98.733289999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>19.037929999999999</v>
+      </c>
+      <c r="D63">
+        <v>-98.203460000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64">
+        <v>20.617000000000001</v>
+      </c>
+      <c r="D64">
+        <v>-105.23018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65">
+        <v>20.72682</v>
+      </c>
+      <c r="D65">
+        <v>-100.45296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66">
+        <v>20.72682</v>
+      </c>
+      <c r="D66">
+        <v>-100.45296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67">
+        <v>25.5</v>
+      </c>
+      <c r="D67">
+        <v>-98.166669999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68">
+        <v>25.423210000000001</v>
+      </c>
+      <c r="D68">
+        <v>-101.00530000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69">
+        <v>25.423210000000001</v>
+      </c>
+      <c r="D69">
+        <v>-101.00530000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>25.423210000000001</v>
+      </c>
+      <c r="D70">
+        <v>-101.00530000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71">
+        <v>25.423210000000001</v>
+      </c>
+      <c r="D71">
+        <v>-101.00530000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72">
+        <v>25.423210000000001</v>
+      </c>
+      <c r="D72">
+        <v>-101.00530000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>22.149819999999998</v>
+      </c>
+      <c r="D73">
+        <v>-100.97915999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>22.28519</v>
+      </c>
+      <c r="D74">
+        <v>-97.877769999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
+        <v>20.825659999999999</v>
+      </c>
+      <c r="D75">
+        <v>-102.59876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D76">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D77">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D78">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D79">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>56</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B80" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C80">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D80">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B81" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>19.287859999999998</v>
+      </c>
+      <c r="D81">
+        <v>-99.653239999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C82">
+        <v>25.527419999999999</v>
+      </c>
+      <c r="D82">
+        <v>-103.46272999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>19.180949999999999</v>
+      </c>
+      <c r="D83">
+        <v>-96.142899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/localidades.xlsx
+++ b/localidades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria jose\Documents\ITESO\ExelPitss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if714983_iteso_mx/Documents/ITESO/8avo semestre/PAP/ExelPitss_Equipo4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4CB467DD2835669F8155403F255B343A346B8634" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBA191F1-E17E-4B44-ABF5-DEA327E164BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>MARIN AVILA HECTOR</t>
   </si>
@@ -375,18 +367,12 @@
   </si>
   <si>
     <t>APELLIDOS Y NOMBRES</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,16 +422,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D83" totalsRowShown="0">
-  <autoFilter ref="A1:D83"/>
-  <sortState ref="A2:D83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:B83" totalsRowShown="0">
+  <autoFilter ref="A1:B83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
     <sortCondition ref="B1:B83"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="APELLIDOS Y NOMBRES"/>
-    <tableColumn id="2" name="Zona"/>
-    <tableColumn id="3" name="Lat"/>
-    <tableColumn id="4" name="Long"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="APELLIDOS Y NOMBRES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zona"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,1179 +731,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="C2">
-        <v>21.882339999999999</v>
-      </c>
-      <c r="D2">
-        <v>-102.28259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="C3">
-        <v>19.346699999999998</v>
-      </c>
-      <c r="D3">
-        <v>-99.161739999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4">
-        <v>17.556529999999999</v>
-      </c>
-      <c r="D4">
-        <v>-93.381039999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="C5">
-        <v>28.635280000000002</v>
-      </c>
-      <c r="D5">
-        <v>-106.08889000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="C6">
-        <v>28.635280000000002</v>
-      </c>
-      <c r="D6">
-        <v>-106.08889000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C7">
-        <v>28.635280000000002</v>
-      </c>
-      <c r="D7">
-        <v>-106.08889000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="C8">
-        <v>28.635280000000002</v>
-      </c>
-      <c r="D8">
-        <v>-106.08889000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D9">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D10">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D11">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D12">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D13">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D14">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D15">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D16">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17">
-        <v>19.428470000000001</v>
-      </c>
-      <c r="D17">
-        <v>-99.127660000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="C18">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D18">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C19">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D19">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D20">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="C21">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D21">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="C22">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D22">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D23">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="C24">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D24">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="C25">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D25">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="C26">
-        <v>31.733329999999999</v>
-      </c>
-      <c r="D26">
-        <v>-106.48333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="C27">
-        <v>23.74174</v>
-      </c>
-      <c r="D27">
-        <v>-99.145989999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="C28">
-        <v>19.147359999999999</v>
-      </c>
-      <c r="D28">
-        <v>-103.72244000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29">
-        <v>18.926100000000002</v>
-      </c>
-      <c r="D29">
-        <v>-99.23075</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30">
-        <v>24.057179999999999</v>
-      </c>
-      <c r="D30">
-        <v>-104.53319999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>81</v>
       </c>
-      <c r="C31">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D31">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="C32">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D32">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
       </c>
-      <c r="C33">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D33">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C34">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D34">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="C35">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D35">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="C36">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D36">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D37">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D38">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D39">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D40">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C41">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D41">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="C42">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D42">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="C43">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D43">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C44">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D44">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="C45">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D45">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D46">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C47">
-        <v>20.666820000000001</v>
-      </c>
-      <c r="D47">
-        <v>-103.39182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
       </c>
-      <c r="C48">
-        <v>20.676749999999998</v>
-      </c>
-      <c r="D48">
-        <v>-101.35628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="C49">
-        <v>21.129079999999998</v>
-      </c>
-      <c r="D49">
-        <v>-101.67374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
       </c>
-      <c r="C50">
-        <v>21.129079999999998</v>
-      </c>
-      <c r="D50">
-        <v>-101.67374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51">
-        <v>20.975370000000002</v>
-      </c>
-      <c r="D51">
-        <v>-89.616960000000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="C52">
-        <v>29.906870000000001</v>
-      </c>
-      <c r="D52">
-        <v>-101.42055999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="C53">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D53">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
-      <c r="C54">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D54">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="C55">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D55">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D56">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C57">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D57">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C58">
-        <v>25.675070000000002</v>
-      </c>
-      <c r="D58">
-        <v>-100.31847</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="C59">
-        <v>19.700780000000002</v>
-      </c>
-      <c r="D59">
-        <v>-101.18443000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60">
-        <v>19.700780000000002</v>
-      </c>
-      <c r="D60">
-        <v>-101.18443000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C61">
-        <v>27.476289999999999</v>
-      </c>
-      <c r="D61">
-        <v>-99.516390000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>108</v>
       </c>
-      <c r="C62">
-        <v>20.116969999999998</v>
-      </c>
-      <c r="D62">
-        <v>-98.733289999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
       <c r="B63" t="s">
         <v>86</v>
       </c>
-      <c r="C63">
-        <v>19.037929999999999</v>
-      </c>
-      <c r="D63">
-        <v>-98.203460000000007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
       </c>
-      <c r="C64">
-        <v>20.617000000000001</v>
-      </c>
-      <c r="D64">
-        <v>-105.23018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>97</v>
       </c>
-      <c r="C65">
-        <v>20.72682</v>
-      </c>
-      <c r="D65">
-        <v>-100.45296</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>97</v>
       </c>
-      <c r="C66">
-        <v>20.72682</v>
-      </c>
-      <c r="D66">
-        <v>-100.45296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>87</v>
       </c>
-      <c r="C67">
-        <v>25.5</v>
-      </c>
-      <c r="D67">
-        <v>-98.166669999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
-      <c r="C68">
-        <v>25.423210000000001</v>
-      </c>
-      <c r="D68">
-        <v>-101.00530000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>88</v>
       </c>
-      <c r="C69">
-        <v>25.423210000000001</v>
-      </c>
-      <c r="D69">
-        <v>-101.00530000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
-      <c r="C70">
-        <v>25.423210000000001</v>
-      </c>
-      <c r="D70">
-        <v>-101.00530000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="C71">
-        <v>25.423210000000001</v>
-      </c>
-      <c r="D71">
-        <v>-101.00530000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
-      <c r="C72">
-        <v>25.423210000000001</v>
-      </c>
-      <c r="D72">
-        <v>-101.00530000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
-      <c r="C73">
-        <v>22.149819999999998</v>
-      </c>
-      <c r="D73">
-        <v>-100.97915999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
         <v>102</v>
       </c>
-      <c r="C74">
-        <v>22.28519</v>
-      </c>
-      <c r="D74">
-        <v>-97.877769999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
       <c r="B75" t="s">
         <v>95</v>
       </c>
-      <c r="C75">
-        <v>20.825659999999999</v>
-      </c>
-      <c r="D75">
-        <v>-102.59876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>46</v>
       </c>
       <c r="B76" t="s">
         <v>94</v>
       </c>
-      <c r="C76">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D76">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>94</v>
       </c>
-      <c r="C77">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D77">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
         <v>94</v>
       </c>
-      <c r="C78">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D78">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
       <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c r="C79">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D79">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
       </c>
-      <c r="C80">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D80">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C81">
-        <v>19.287859999999998</v>
-      </c>
-      <c r="D81">
-        <v>-99.653239999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
       </c>
-      <c r="C82">
-        <v>25.527419999999999</v>
-      </c>
-      <c r="D82">
-        <v>-103.46272999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>51</v>
       </c>
       <c r="B83" t="s">
         <v>100</v>
-      </c>
-      <c r="C83">
-        <v>19.180949999999999</v>
-      </c>
-      <c r="D83">
-        <v>-96.142899999999997</v>
       </c>
     </row>
   </sheetData>
